--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220515_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220515_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="253">
   <si>
     <t>사이트</t>
   </si>
@@ -716,9 +716,6 @@
   </si>
   <si>
     <t>SONY MUSIC</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>SOURCE MUSIC</t>
@@ -2069,7 +2066,7 @@
         <v>182</v>
       </c>
       <c r="G36" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H36" t="s">
         <v>231</v>
@@ -2199,7 +2196,7 @@
         <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H41" t="s">
         <v>231</v>
@@ -2251,7 +2248,7 @@
         <v>184</v>
       </c>
       <c r="G43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H43" t="s">
         <v>231</v>
@@ -2303,7 +2300,7 @@
         <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H45" t="s">
         <v>231</v>
@@ -2329,7 +2326,7 @@
         <v>185</v>
       </c>
       <c r="G46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H46" t="s">
         <v>231</v>
@@ -2355,7 +2352,7 @@
         <v>186</v>
       </c>
       <c r="G47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H47" t="s">
         <v>231</v>
@@ -2381,7 +2378,7 @@
         <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H48" t="s">
         <v>231</v>
@@ -2511,7 +2508,7 @@
         <v>187</v>
       </c>
       <c r="G53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H53" t="s">
         <v>231</v>
@@ -2537,10 +2534,10 @@
         <v>188</v>
       </c>
       <c r="G54" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H54" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2563,10 +2560,10 @@
         <v>63</v>
       </c>
       <c r="G55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2615,7 +2612,7 @@
         <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H57" t="s">
         <v>231</v>
@@ -2641,7 +2638,7 @@
         <v>189</v>
       </c>
       <c r="G58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H58" t="s">
         <v>231</v>
@@ -2719,7 +2716,7 @@
         <v>192</v>
       </c>
       <c r="G61" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H61" t="s">
         <v>231</v>
@@ -2745,7 +2742,7 @@
         <v>189</v>
       </c>
       <c r="G62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H62" t="s">
         <v>231</v>
@@ -2771,7 +2768,7 @@
         <v>71</v>
       </c>
       <c r="G63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H63" t="s">
         <v>231</v>
@@ -2823,7 +2820,7 @@
         <v>194</v>
       </c>
       <c r="G65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H65" t="s">
         <v>231</v>
@@ -2927,7 +2924,7 @@
         <v>197</v>
       </c>
       <c r="G69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H69" t="s">
         <v>231</v>
@@ -2953,7 +2950,7 @@
         <v>198</v>
       </c>
       <c r="G70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H70" t="s">
         <v>231</v>
@@ -3005,7 +3002,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H72" t="s">
         <v>231</v>
@@ -3031,7 +3028,7 @@
         <v>200</v>
       </c>
       <c r="G73" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H73" t="s">
         <v>231</v>
@@ -3057,7 +3054,7 @@
         <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H74" t="s">
         <v>231</v>
@@ -3083,7 +3080,7 @@
         <v>201</v>
       </c>
       <c r="G75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H75" t="s">
         <v>231</v>
@@ -3161,7 +3158,7 @@
         <v>86</v>
       </c>
       <c r="G78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H78" t="s">
         <v>231</v>
@@ -3187,7 +3184,7 @@
         <v>204</v>
       </c>
       <c r="G79" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H79" t="s">
         <v>231</v>
@@ -3213,10 +3210,10 @@
         <v>205</v>
       </c>
       <c r="G80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3239,7 +3236,7 @@
         <v>206</v>
       </c>
       <c r="G81" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H81" t="s">
         <v>231</v>
@@ -3265,7 +3262,7 @@
         <v>207</v>
       </c>
       <c r="G82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H82" t="s">
         <v>231</v>
@@ -3291,7 +3288,7 @@
         <v>91</v>
       </c>
       <c r="G83" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H83" t="s">
         <v>231</v>
@@ -3317,7 +3314,7 @@
         <v>208</v>
       </c>
       <c r="G84" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H84" t="s">
         <v>231</v>
@@ -3395,7 +3392,7 @@
         <v>210</v>
       </c>
       <c r="G87" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H87" t="s">
         <v>231</v>
@@ -3421,7 +3418,7 @@
         <v>211</v>
       </c>
       <c r="G88" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H88" t="s">
         <v>231</v>
@@ -3551,7 +3548,7 @@
         <v>183</v>
       </c>
       <c r="G93" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H93" t="s">
         <v>231</v>
@@ -3577,7 +3574,7 @@
         <v>214</v>
       </c>
       <c r="G94" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H94" t="s">
         <v>231</v>
@@ -3629,7 +3626,7 @@
         <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" t="s">
         <v>231</v>
@@ -3681,7 +3678,7 @@
         <v>106</v>
       </c>
       <c r="G98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H98" t="s">
         <v>231</v>
@@ -3707,7 +3704,7 @@
         <v>217</v>
       </c>
       <c r="G99" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H99" t="s">
         <v>231</v>
@@ -3759,7 +3756,7 @@
         <v>218</v>
       </c>
       <c r="G101" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H101" t="s">
         <v>231</v>
